--- a/Math_Functions/Math_functions_InClass.xlsx
+++ b/Math_Functions/Math_functions_InClass.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Math_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C2BE762-EDE6-4A24-8819-5A678E4D36DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ADDB46-C978-4E3B-B4F8-D27D884B6686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28635" yWindow="-165" windowWidth="15690" windowHeight="11250" xr2:uid="{DAED6279-8FDE-4E02-9EB3-DCAB411A94B9}"/>
+    <workbookView xWindow="28635" yWindow="-165" windowWidth="15690" windowHeight="11250" activeTab="3" xr2:uid="{DAED6279-8FDE-4E02-9EB3-DCAB411A94B9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ABS" sheetId="1" r:id="rId1"/>
+    <sheet name="SIGN" sheetId="2" r:id="rId2"/>
+    <sheet name="GCD" sheetId="3" r:id="rId3"/>
+    <sheet name="LCM" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,9 +27,41 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Forecast</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Num1</t>
+  </si>
+  <si>
+    <t>Num2</t>
+  </si>
+  <si>
+    <t>GCD</t>
+  </si>
+  <si>
+    <t>LCM</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,16 +69,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,12 +106,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,12 +448,262 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33284FF2-816C-4799-911F-4DACC58C11FA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>79</v>
+      </c>
+      <c r="C2">
+        <v>81</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>81</v>
+      </c>
+      <c r="C3">
+        <v>81</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>85</v>
+      </c>
+      <c r="C4">
+        <v>81</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>81</v>
+      </c>
+      <c r="C5">
+        <v>77</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>70</v>
+      </c>
+      <c r="C6">
+        <v>75</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>73</v>
+      </c>
+      <c r="C7">
+        <v>74</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3">
+        <f>SUM(D2:D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E345DED-2CC9-4EE8-A2EA-D7D98745F30F}">
+  <dimension ref="A2:B6"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>-1</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>-26</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71F9636-2BD3-467D-AC06-ADC9754DEE05}">
+  <dimension ref="B2:D5"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3" s="4">
+        <v>45</v>
+      </c>
+      <c r="C3" s="4">
+        <v>54</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="4">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4">
+        <v>36</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="4">
+        <v>60</v>
+      </c>
+      <c r="C5" s="4">
+        <v>36</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5139292F-8B67-4130-8955-225626197278}">
+  <dimension ref="C2:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C3" s="4">
+        <v>45</v>
+      </c>
+      <c r="D3" s="4">
+        <v>54</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C4" s="4">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4">
+        <v>36</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C5" s="4">
+        <v>60</v>
+      </c>
+      <c r="D5" s="4">
+        <v>36</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Math_Functions/Math_functions_InClass.xlsx
+++ b/Math_Functions/Math_functions_InClass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Math_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ADDB46-C978-4E3B-B4F8-D27D884B6686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8C4C4D-C14A-49BB-A297-75B418AF034A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28635" yWindow="-165" windowWidth="15690" windowHeight="11250" activeTab="3" xr2:uid="{DAED6279-8FDE-4E02-9EB3-DCAB411A94B9}"/>
   </bookViews>
@@ -448,15 +448,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33284FF2-816C-4799-911F-4DACC58C11FA}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,8 +469,15 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G1">
+        <v>-5</v>
+      </c>
+      <c r="H1" s="2">
+        <f>ABS(G1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -480,9 +487,12 @@
       <c r="C2">
         <v>81</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D2" s="3">
+        <f>ABS(B2-C2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -492,9 +502,12 @@
       <c r="C3">
         <v>81</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D7" si="0">ABS(B3-C3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -504,9 +517,19 @@
       <c r="C4">
         <v>81</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <f>ABS(G4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -516,9 +539,12 @@
       <c r="C5">
         <v>77</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -528,9 +554,12 @@
       <c r="C6">
         <v>75</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -540,15 +569,25 @@
       <c r="C7">
         <v>74</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2">
+        <f>ABS(G7)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
         <f>SUM(D2:D7)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -561,7 +600,7 @@
   <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -570,31 +609,46 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2">
+        <f>SIGN(A2)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2">
+        <f>SIGN(A3)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>-1</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <f>SIGN(A4)</f>
+        <v>-1</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>-26</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <f t="shared" ref="B5:B6" si="0">SIGN(A5)</f>
+        <v>-1</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>45</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -606,7 +660,7 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -629,7 +683,10 @@
       <c r="C3" s="4">
         <v>54</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5">
+        <f>GCD(B3,C3)</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="4">
@@ -638,7 +695,10 @@
       <c r="C4" s="4">
         <v>36</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:D5" si="0">GCD(B4,C4)</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="4">
@@ -647,7 +707,10 @@
       <c r="C5" s="4">
         <v>36</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -660,7 +723,7 @@
   <dimension ref="C2:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -683,7 +746,10 @@
       <c r="D3" s="4">
         <v>54</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <f>LCM(C3,D3)</f>
+        <v>270</v>
+      </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C4" s="4">
@@ -692,7 +758,10 @@
       <c r="D4" s="4">
         <v>36</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:E5" si="0">LCM(C4,D4)</f>
+        <v>72</v>
+      </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C5" s="4">
@@ -701,7 +770,10 @@
       <c r="D5" s="4">
         <v>36</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Math_Functions/Math_functions_InClass.xlsx
+++ b/Math_Functions/Math_functions_InClass.xlsx
@@ -8,15 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Math_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8C4C4D-C14A-49BB-A297-75B418AF034A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FE4023-698A-46A6-841D-3F7A6F4AC723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28635" yWindow="-165" windowWidth="15690" windowHeight="11250" activeTab="3" xr2:uid="{DAED6279-8FDE-4E02-9EB3-DCAB411A94B9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="4" activeTab="9" xr2:uid="{DAED6279-8FDE-4E02-9EB3-DCAB411A94B9}"/>
   </bookViews>
   <sheets>
     <sheet name="ABS" sheetId="1" r:id="rId1"/>
     <sheet name="SIGN" sheetId="2" r:id="rId2"/>
     <sheet name="GCD" sheetId="3" r:id="rId3"/>
     <sheet name="LCM" sheetId="4" r:id="rId4"/>
+    <sheet name="Power" sheetId="5" r:id="rId5"/>
+    <sheet name="SQRT" sheetId="6" r:id="rId6"/>
+    <sheet name="Quotient" sheetId="7" r:id="rId7"/>
+    <sheet name="Mod" sheetId="8" r:id="rId8"/>
+    <sheet name="Average" sheetId="9" r:id="rId9"/>
+    <sheet name="Averageifs" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>Month</t>
   </si>
@@ -55,12 +61,145 @@
   </si>
   <si>
     <t>LCM</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>POWER(A2,B2)</t>
+  </si>
+  <si>
+    <t>SQRT(A2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numerator </t>
+  </si>
+  <si>
+    <t>Denominator</t>
+  </si>
+  <si>
+    <t>QUOTIENT(A2,B2)</t>
+  </si>
+  <si>
+    <t>Divisor</t>
+  </si>
+  <si>
+    <t>MOD(A2,B2)</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>QUIZ 1</t>
+  </si>
+  <si>
+    <t>QUIZ 2</t>
+  </si>
+  <si>
+    <t>QUIZ 3</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>ALEX</t>
+  </si>
+  <si>
+    <t>SAM</t>
+  </si>
+  <si>
+    <t>JOE</t>
+  </si>
+  <si>
+    <t>JOHN</t>
+  </si>
+  <si>
+    <t>STEVEN</t>
+  </si>
+  <si>
+    <t>AVERAGE(B2,C2,D2)</t>
+  </si>
+  <si>
+    <t>PRODUCT</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>IPHONE</t>
+  </si>
+  <si>
+    <t>AVERAGEIFS</t>
+  </si>
+  <si>
+    <t>SAMSUNG</t>
+  </si>
+  <si>
+    <t>GROUP</t>
+  </si>
+  <si>
+    <t>AVG_PRICE</t>
+  </si>
+  <si>
+    <t>AVERAGEIFS(B2:B7,A2:A7,"IPHONE")</t>
+  </si>
+  <si>
+    <t>BLACKBERRY</t>
+  </si>
+  <si>
+    <t>AVERAGEIF(A2:A7,"SAMSUNG",B2:B7)</t>
+  </si>
+  <si>
+    <t>AVERAGEIF</t>
+  </si>
+  <si>
+    <t>Same sign as the divisor</t>
+  </si>
+  <si>
+    <t>Multiple Criteria</t>
+  </si>
+  <si>
+    <t>COLOR</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>america</t>
+  </si>
+  <si>
+    <t>china</t>
+  </si>
+  <si>
+    <t>korea</t>
+  </si>
+  <si>
+    <t>Single Criteria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -84,7 +223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,8 +236,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -121,11 +272,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -134,6 +320,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,6 +804,211 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E678F390-230E-4D2C-AC80-706140796133}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.81640625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1500</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="17">
+        <f>AVERAGEIFS(B2:B7,A2:A7,"IPHONE")</f>
+        <v>1566.6666666666667</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="18"/>
+    </row>
+    <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="17">
+        <f>AVERAGEIFS(B2:B7,A2:A7,"SAMSUNG",C2:C7,"red")</f>
+        <v>2000</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1400</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="17" t="e">
+        <f>AVERAGEIFS(B2:B7,A2:A7,"BLACKBERRY",D2:D7,"china")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="17">
+        <f>AVERAGEIF(A2:A7,"IPHONE",B2:B7)</f>
+        <v>1566.6666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="17">
+        <f>AVERAGEIF(A2:A7,"SAMSUNG",B2:B7)</f>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="17">
+        <f>AVERAGEIF(A2:A7,"BLACKBERRY",B2:B7)</f>
+        <v>1100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="J5:K5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E345DED-2CC9-4EE8-A2EA-D7D98745F30F}">
   <dimension ref="A2:B6"/>
@@ -722,7 +1136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5139292F-8B67-4130-8955-225626197278}">
   <dimension ref="C2:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -778,4 +1192,485 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D30903-42B7-42A4-B263-445B6C2E6381}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="15.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9">
+        <f>POWER(A2,B2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>4</v>
+      </c>
+      <c r="C3" s="9">
+        <f>POWER(A3,B3)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9">
+        <f>POWER(A4,B4)</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>200</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" ref="C5:C6" si="0">POWER(A5,B5)</f>
+        <v>40000</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>30</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CC2F80-56FF-49AC-AA28-0FEB3797C2D5}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>55</v>
+      </c>
+      <c r="B2" s="11">
+        <f>SQRT(A2)</f>
+        <v>7.416198487095663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>16</v>
+      </c>
+      <c r="B3" s="11">
+        <f t="shared" ref="B3:B4" si="0">SQRT(A3)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>25</v>
+      </c>
+      <c r="B4" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10">
+        <v>-6</v>
+      </c>
+      <c r="B5" s="10" t="e">
+        <f>SQRT(A5)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>34</v>
+      </c>
+      <c r="B6" s="11">
+        <f>SQRT(A6)</f>
+        <v>5.8309518948453007</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCA61A6-AB8D-4B4D-9A28-CE9D53F78632}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.1796875" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="18.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9">
+        <f>QUOTIENT(A2,B2)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>24</v>
+      </c>
+      <c r="B3" s="6">
+        <v>4</v>
+      </c>
+      <c r="C3" s="9">
+        <f>QUOTIENT(A3,B3)</f>
+        <v>6</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>678</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" ref="C4:C6" si="0">QUOTIENT(A4,B4)</f>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>55</v>
+      </c>
+      <c r="B5" s="6">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>789</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="0"/>
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BC78D9-18B0-456B-9A3B-735059EE1D1E}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.6328125" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5">
+        <f>MOD(A2,B2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4">
+        <v>-7</v>
+      </c>
+      <c r="C3" s="5">
+        <f>MOD(A3,B3)</f>
+        <v>-4</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>678</v>
+      </c>
+      <c r="B4" s="4">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" ref="C4:C6" si="0">MOD(A4,B4)</f>
+        <v>3</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>55</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>789</v>
+      </c>
+      <c r="B6" s="4">
+        <v>37</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0339006F-F173-4650-A711-71F50E4198EE}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="24.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6">
+        <v>45</v>
+      </c>
+      <c r="C2" s="6">
+        <v>36</v>
+      </c>
+      <c r="D2" s="6">
+        <v>48</v>
+      </c>
+      <c r="E2" s="14">
+        <f>AVERAGE(B2,C2,D2)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="6">
+        <v>50</v>
+      </c>
+      <c r="C3" s="6">
+        <v>48</v>
+      </c>
+      <c r="D3" s="6">
+        <v>39</v>
+      </c>
+      <c r="E3" s="14">
+        <f>AVERAGE(B3:D3)</f>
+        <v>45.666666666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6">
+        <v>34</v>
+      </c>
+      <c r="C4" s="6">
+        <v>35</v>
+      </c>
+      <c r="D4" s="6">
+        <v>50</v>
+      </c>
+      <c r="E4" s="14">
+        <f t="shared" ref="E4:E6" si="0">AVERAGE(B4:D4)</f>
+        <v>39.666666666666664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="6">
+        <v>31</v>
+      </c>
+      <c r="C5" s="6">
+        <v>45</v>
+      </c>
+      <c r="D5" s="6">
+        <v>48</v>
+      </c>
+      <c r="E5" s="14">
+        <f t="shared" si="0"/>
+        <v>41.333333333333336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="6">
+        <v>45</v>
+      </c>
+      <c r="C6" s="6">
+        <v>42</v>
+      </c>
+      <c r="D6" s="6">
+        <v>40</v>
+      </c>
+      <c r="E6" s="14">
+        <f t="shared" si="0"/>
+        <v>42.333333333333336</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Math_Functions/Math_functions_InClass.xlsx
+++ b/Math_Functions/Math_functions_InClass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Math_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FE4023-698A-46A6-841D-3F7A6F4AC723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E5413B-23FC-410D-B2C1-8B155588189B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="4" activeTab="9" xr2:uid="{DAED6279-8FDE-4E02-9EB3-DCAB411A94B9}"/>
   </bookViews>
@@ -809,7 +809,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.81640625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Math_Functions/Math_functions_InClass.xlsx
+++ b/Math_Functions/Math_functions_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Math_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E5413B-23FC-410D-B2C1-8B155588189B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A6145F-B669-4456-833B-41632DAC6568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="4" activeTab="9" xr2:uid="{DAED6279-8FDE-4E02-9EB3-DCAB411A94B9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="14" activeTab="15" xr2:uid="{DAED6279-8FDE-4E02-9EB3-DCAB411A94B9}"/>
   </bookViews>
   <sheets>
     <sheet name="ABS" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,16 @@
     <sheet name="Mod" sheetId="8" r:id="rId8"/>
     <sheet name="Average" sheetId="9" r:id="rId9"/>
     <sheet name="Averageifs" sheetId="10" r:id="rId10"/>
+    <sheet name="Count" sheetId="11" r:id="rId11"/>
+    <sheet name="CountA" sheetId="12" r:id="rId12"/>
+    <sheet name="Countblank" sheetId="13" r:id="rId13"/>
+    <sheet name="Min &amp; Max" sheetId="14" r:id="rId14"/>
+    <sheet name="Sum" sheetId="15" r:id="rId15"/>
+    <sheet name="Median" sheetId="16" r:id="rId16"/>
+    <sheet name="Large" sheetId="17" r:id="rId17"/>
+    <sheet name="Small" sheetId="18" r:id="rId18"/>
+    <sheet name="Product" sheetId="19" r:id="rId19"/>
+    <sheet name="Subtotal" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,8 +43,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Bhavani</author>
+  </authors>
+  <commentList>
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{0D61710A-C212-48D1-946F-EB01FF91D69E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bhavani:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+in mathematics first has to be arranged in ascending order</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="118">
   <si>
     <t>Month</t>
   </si>
@@ -190,17 +234,216 @@
   </si>
   <si>
     <t>Single Criteria</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>TOTAL_COUNT</t>
+  </si>
+  <si>
+    <t>COUNT(A1:A6)</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>" "</t>
+  </si>
+  <si>
+    <t>COUNTA(A2:A6)</t>
+  </si>
+  <si>
+    <t>EMP</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Comm</t>
+  </si>
+  <si>
+    <t>Result 1</t>
+  </si>
+  <si>
+    <t>Result 2</t>
+  </si>
+  <si>
+    <t>Result 3</t>
+  </si>
+  <si>
+    <t>COUNTBLANK(A2:A6)</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>Num</t>
+  </si>
+  <si>
+    <t>MIN(A3:A7)</t>
+  </si>
+  <si>
+    <t>MAX(D7:D11)</t>
+  </si>
+  <si>
+    <t>NUM</t>
+  </si>
+  <si>
+    <t>SUM(A2:A6)</t>
+  </si>
+  <si>
+    <t>Sum Range</t>
+  </si>
+  <si>
+    <t>SUM(A2:A11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of entire column </t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formula </t>
+  </si>
+  <si>
+    <t>(11+23)/2</t>
+  </si>
+  <si>
+    <t>MEDIAN(B1:F1)</t>
+  </si>
+  <si>
+    <t>MEDIAN(H2:M2)</t>
+  </si>
+  <si>
+    <t>Student_name</t>
+  </si>
+  <si>
+    <t>Total_marks</t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>LARGE(B2:B6,1)</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>Winner</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>1st Runner up</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>2nd Runner up</t>
+  </si>
+  <si>
+    <t>Linda</t>
+  </si>
+  <si>
+    <t>3rd Runner up</t>
+  </si>
+  <si>
+    <t>SMALL(D2:D6,3)</t>
+  </si>
+  <si>
+    <t>NUM1</t>
+  </si>
+  <si>
+    <t>NUM2</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Returns the product of a supplied list of numbers</t>
+  </si>
+  <si>
+    <t>PRODUCT(A2,B2)</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Sales Region</t>
+  </si>
+  <si>
+    <t>Sales Numbers</t>
+  </si>
+  <si>
+    <t>APJ</t>
+  </si>
+  <si>
+    <t>EMEA</t>
+  </si>
+  <si>
+    <t>SUBTOTAL(9,C3:C8)</t>
+  </si>
+  <si>
+    <t>SubTotal</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Avg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,8 +465,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,8 +504,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -307,11 +575,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -341,6 +635,43 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -808,7 +1139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E678F390-230E-4D2C-AC80-706140796133}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1006,6 +1337,878 @@
     <mergeCell ref="J5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DCFFDB-F0F1-4682-9183-B757B59BBCA0}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.90625" defaultRowHeight="26.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>123</v>
+      </c>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>456</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5">
+        <f>COUNT(A2:A6)</f>
+        <v>4</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8150929-D6A4-4E4F-A7B1-870DFD1F9045}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.81640625" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="15.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="19"/>
+    </row>
+    <row r="6" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="20">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="9">
+        <f>COUNTA(A2:A6)</f>
+        <v>4</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B353D2-78AE-4B44-B157-BB1C8EE41C40}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.81640625" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="18.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19">
+        <v>101</v>
+      </c>
+      <c r="B2" s="22">
+        <v>2000</v>
+      </c>
+      <c r="C2" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="19">
+        <v>102</v>
+      </c>
+      <c r="B3" s="22">
+        <v>2200</v>
+      </c>
+      <c r="C3" s="22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="19">
+        <v>103</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+    </row>
+    <row r="5" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="19">
+        <v>104</v>
+      </c>
+      <c r="B5" s="22">
+        <v>3000</v>
+      </c>
+      <c r="C5" s="22"/>
+    </row>
+    <row r="6" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="19"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="8">
+        <f>COUNTBLANK(A2:A6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="8">
+        <f>COUNTBLANK(B2:B6)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="8">
+        <f>COUNTBLANK(C2:C6)</f>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA203321-5229-4107-AED0-4794FCDB9955}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="D1" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="D3" s="4">
+        <v>25</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>345</v>
+      </c>
+      <c r="D4" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>78</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>67</v>
+      </c>
+      <c r="D6" s="4">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="23">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5">
+        <f>MIN(A3:A7)</f>
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5">
+        <f>MAX(D3:D7)</f>
+        <v>345</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618611AB-4EC0-4964-9CB7-592B5AC00BC4}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.90625" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="28">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="28">
+        <v>56</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="29">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="5">
+        <f>SUM(A3:A6)</f>
+        <v>14</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="5">
+        <f>SUM(A2:A11)</f>
+        <v>268</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA04AAC3-C689-4391-8933-ED40E6166E38}">
+  <dimension ref="B1:N8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.08984375" defaultRowHeight="27.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="6" width="6.08984375" customWidth="1"/>
+    <col min="14" max="14" width="14.81640625" customWidth="1"/>
+    <col min="22" max="22" width="16.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="6">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6">
+        <v>25</v>
+      </c>
+      <c r="E1" s="6">
+        <v>35</v>
+      </c>
+      <c r="F1" s="6">
+        <v>48</v>
+      </c>
+      <c r="H1" s="6">
+        <v>11</v>
+      </c>
+      <c r="I1" s="6">
+        <v>23</v>
+      </c>
+      <c r="J1" s="6">
+        <v>6</v>
+      </c>
+      <c r="K1" s="6">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6">
+        <v>90</v>
+      </c>
+      <c r="M1" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="6">
+        <v>6</v>
+      </c>
+      <c r="I2" s="6">
+        <v>8</v>
+      </c>
+      <c r="J2" s="6">
+        <v>11</v>
+      </c>
+      <c r="K2" s="6">
+        <v>23</v>
+      </c>
+      <c r="L2" s="6">
+        <v>67</v>
+      </c>
+      <c r="M2" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="9"/>
+      <c r="I3" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="30"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I4" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="30"/>
+      <c r="M4" s="31">
+        <f>(11+23)/2</f>
+        <v>17</v>
+      </c>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="6" spans="2:14" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N6" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N8" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB267F3-591C-43DD-828F-1C1CE96E1F96}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.90625" defaultRowHeight="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="4">
+        <v>89</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="4">
+        <v>78</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="4">
+        <v>65</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="4">
+        <v>45</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5941C699-E957-4DF8-AF07-93753F7D6322}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="16.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="32">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C2" s="32">
+        <v>0.3820601851851852</v>
+      </c>
+      <c r="D2" s="32">
+        <f>(C2-B2)</f>
+        <v>4.8726851851851882E-2</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="32">
+        <v>0.33344907407407409</v>
+      </c>
+      <c r="C3" s="32">
+        <v>0.3821180555555555</v>
+      </c>
+      <c r="D3" s="32">
+        <f t="shared" ref="D3:D6" si="0">(C3-B3)</f>
+        <v>4.866898148148141E-2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="32">
+        <v>0.33350694444444445</v>
+      </c>
+      <c r="C4" s="32">
+        <v>0.38217592592592592</v>
+      </c>
+      <c r="D4" s="32">
+        <f t="shared" si="0"/>
+        <v>4.8668981481481466E-2</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="33"/>
+    </row>
+    <row r="5" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="32">
+        <v>0.33334490740740735</v>
+      </c>
+      <c r="C5" s="32">
+        <v>0.38385416666666666</v>
+      </c>
+      <c r="D5" s="32">
+        <f t="shared" si="0"/>
+        <v>5.0509259259259309E-2</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="32">
+        <v>0.33339120370370368</v>
+      </c>
+      <c r="C6" s="32">
+        <v>0.38605324074074071</v>
+      </c>
+      <c r="D6" s="32">
+        <f t="shared" si="0"/>
+        <v>5.2662037037037035E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3D083D-CF12-4D65-B387-3595B7FA5B40}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="16.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="E2" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+    </row>
+    <row r="3" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+    </row>
+    <row r="4" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>25</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="F5" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1066,6 +2269,132 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF54A69C-C469-4B8A-9077-11C6B7F5EF64}">
+  <dimension ref="A2:F11"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="6" max="6" width="20.08984375" customWidth="1"/>
+    <col min="9" max="9" width="19.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="22">
+        <v>2018</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="22">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="22">
+        <v>2018</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="22">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="22">
+        <v>2019</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="22">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="22">
+        <v>2019</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="22">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="22">
+        <v>2020</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="22">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="22">
+        <v>90</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="35"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Math_Functions/Math_functions_InClass.xlsx
+++ b/Math_Functions/Math_functions_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Math_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A6145F-B669-4456-833B-41632DAC6568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F99008-F164-401A-A3F0-17F89913E27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="14" activeTab="15" xr2:uid="{DAED6279-8FDE-4E02-9EB3-DCAB411A94B9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="14" activeTab="19" xr2:uid="{DAED6279-8FDE-4E02-9EB3-DCAB411A94B9}"/>
   </bookViews>
   <sheets>
     <sheet name="ABS" sheetId="1" r:id="rId1"/>
@@ -1763,8 +1763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA04AAC3-C689-4391-8933-ED40E6166E38}">
   <dimension ref="B1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.08984375" defaultRowHeight="27.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1808,6 +1808,10 @@
       <c r="M1" s="6">
         <v>67</v>
       </c>
+      <c r="N1">
+        <f>MEDIAN(H1:M1)</f>
+        <v>17</v>
+      </c>
     </row>
     <row r="2" spans="2:14" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H2" s="6">
@@ -1834,12 +1838,18 @@
         <v>76</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="9"/>
+      <c r="D3" s="9">
+        <f>MEDIAN(B1:F1)</f>
+        <v>25</v>
+      </c>
       <c r="I3" s="30" t="s">
         <v>76</v>
       </c>
       <c r="J3" s="30"/>
-      <c r="K3" s="9"/>
+      <c r="K3" s="9">
+        <f>MEDIAN(H2:M2)</f>
+        <v>17</v>
+      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1887,7 +1897,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.90625" defaultRowHeight="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1924,7 +1934,10 @@
       <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <f>LARGE(B2:B6,1)</f>
+        <v>90</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
@@ -1936,7 +1949,10 @@
       <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5">
+        <f>LARGE(B2:B6,2)</f>
+        <v>89</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
@@ -1948,7 +1964,10 @@
       <c r="D5" s="4">
         <v>3</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5">
+        <f>LARGE(B2:B6,3)</f>
+        <v>78</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
@@ -1973,7 +1992,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2035,7 +2054,10 @@
       <c r="F3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="33"/>
+      <c r="G3" s="33">
+        <f>SMALL(D2:D6,3)</f>
+        <v>4.8726851851851882E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
@@ -2054,7 +2076,10 @@
       <c r="F4" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="33"/>
+      <c r="G4" s="33">
+        <f>SMALL(D2:D6,4)</f>
+        <v>5.0509259259259309E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
@@ -2073,7 +2098,10 @@
       <c r="F5" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="33">
+        <f>SMALL(D2:D6,5)</f>
+        <v>5.2662037037037035E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
@@ -2106,7 +2134,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2132,7 +2160,10 @@
       <c r="B2" s="4">
         <v>6</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5">
+        <f>PRODUCT(A2,B2)</f>
+        <v>72</v>
+      </c>
       <c r="E2" s="34" t="s">
         <v>107</v>
       </c>
@@ -2148,7 +2179,10 @@
       <c r="B3" s="4">
         <v>5</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5">
+        <f>PRODUCT(A3,B3)</f>
+        <v>50</v>
+      </c>
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
@@ -2162,7 +2196,10 @@
       <c r="B4" s="4">
         <v>5</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5">
+        <f t="shared" ref="C4:C8" si="0">PRODUCT(A4,B4)</f>
+        <v>125</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
@@ -2171,7 +2208,10 @@
       <c r="B5" s="4">
         <v>6</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
       <c r="F5" s="7" t="s">
         <v>108</v>
       </c>
@@ -2183,7 +2223,10 @@
       <c r="B6" s="4">
         <v>8</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
@@ -2192,7 +2235,10 @@
       <c r="B7" s="4">
         <v>8</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
@@ -2201,7 +2247,10 @@
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2276,8 +2325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF54A69C-C469-4B8A-9077-11C6B7F5EF64}">
   <dimension ref="A2:F11"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2381,7 +2430,10 @@
       <c r="B10" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="35"/>
+      <c r="C10" s="35">
+        <f>SUBTOTAL(9,C3:C8)</f>
+        <v>263</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
@@ -2390,7 +2442,10 @@
       <c r="B11" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="35">
+        <f>SUBTOTAL(1,C3:C8)</f>
+        <v>43.833333333333336</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Math_Functions/Math_functions_InClass.xlsx
+++ b/Math_Functions/Math_functions_InClass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Math_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F99008-F164-401A-A3F0-17F89913E27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199B2106-39DC-423C-AC58-2BFECF9B71F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="14" activeTab="19" xr2:uid="{DAED6279-8FDE-4E02-9EB3-DCAB411A94B9}"/>
   </bookViews>
@@ -2326,7 +2326,7 @@
   <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Math_Functions/Math_functions_InClass.xlsx
+++ b/Math_Functions/Math_functions_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Math_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199B2106-39DC-423C-AC58-2BFECF9B71F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D864070A-3BB2-42BB-9903-B3A4ECA599FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="14" activeTab="19" xr2:uid="{DAED6279-8FDE-4E02-9EB3-DCAB411A94B9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="18" activeTab="22" xr2:uid="{DAED6279-8FDE-4E02-9EB3-DCAB411A94B9}"/>
   </bookViews>
   <sheets>
     <sheet name="ABS" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,9 @@
     <sheet name="Small" sheetId="18" r:id="rId18"/>
     <sheet name="Product" sheetId="19" r:id="rId19"/>
     <sheet name="Subtotal" sheetId="20" r:id="rId20"/>
+    <sheet name="Celing" sheetId="21" r:id="rId21"/>
+    <sheet name="EVEN" sheetId="22" r:id="rId22"/>
+    <sheet name="ODD" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -78,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="134">
   <si>
     <t>Month</t>
   </si>
@@ -432,6 +435,54 @@
   </si>
   <si>
     <t>Avg</t>
+  </si>
+  <si>
+    <t>Floor</t>
+  </si>
+  <si>
+    <t>Ceiling</t>
+  </si>
+  <si>
+    <t>FLOOR(E2,1)</t>
+  </si>
+  <si>
+    <t>CEILING(2.4,1)</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Round up to the nearest odd integer ,skips 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Round up to the nearest even integer </t>
+  </si>
+  <si>
+    <t>Round up to  1</t>
+  </si>
+  <si>
+    <t>Round up to 2 skipping 1</t>
+  </si>
+  <si>
+    <t>Round up to 3; skipping 2</t>
+  </si>
+  <si>
+    <t>Round up away from Zero to -3; skips -2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Round up away from Zero; skips -1 </t>
+  </si>
+  <si>
+    <t>Round up away from Zero to -3</t>
+  </si>
+  <si>
+    <t>Round up away from Zero; skips -3</t>
+  </si>
+  <si>
+    <t>ODD(A2)</t>
+  </si>
+  <si>
+    <t>EVEN(A2)</t>
   </si>
 </sst>
 </file>
@@ -605,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -625,18 +676,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -648,11 +689,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -660,19 +718,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="19" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1176,10 +1226,10 @@
       <c r="D2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="18"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -1194,10 +1244,10 @@
       <c r="D3" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="16"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
@@ -1238,14 +1288,14 @@
       <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="14">
         <f>AVERAGEIFS(B2:B7,A2:A7,"IPHONE")</f>
         <v>1566.6666666666667</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="18"/>
+      <c r="K5" s="29"/>
     </row>
     <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
@@ -1263,17 +1313,17 @@
       <c r="E6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="14">
         <f>AVERAGEIFS(B2:B7,A2:A7,"SAMSUNG",C2:C7,"red")</f>
         <v>2000</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="16"/>
+      <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
@@ -1291,7 +1341,7 @@
       <c r="E7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="17" t="e">
+      <c r="F7" s="14" t="e">
         <f>AVERAGEIFS(B2:B7,A2:A7,"BLACKBERRY",D2:D7,"china")</f>
         <v>#DIV/0!</v>
       </c>
@@ -1306,7 +1356,7 @@
       <c r="J8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="14">
         <f>AVERAGEIF(A2:A7,"IPHONE",B2:B7)</f>
         <v>1566.6666666666667</v>
       </c>
@@ -1315,7 +1365,7 @@
       <c r="J9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="14">
         <f>AVERAGEIF(A2:A7,"SAMSUNG",B2:B7)</f>
         <v>1700</v>
       </c>
@@ -1324,7 +1374,7 @@
       <c r="J10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="14">
         <f>AVERAGEIF(A2:A7,"BLACKBERRY",B2:B7)</f>
         <v>1100</v>
       </c>
@@ -1416,25 +1466,25 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
+      <c r="A5" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20">
+      <c r="A6" s="16">
         <v>-3</v>
       </c>
     </row>
@@ -1446,7 +1496,7 @@
         <f>COUNTA(A2:A6)</f>
         <v>4</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="17" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1480,50 +1530,50 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19">
+      <c r="A2" s="15">
         <v>101</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="18">
         <v>2000</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19">
+      <c r="A3" s="15">
         <v>102</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="18">
         <v>2200</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="18">
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19">
+      <c r="A4" s="15">
         <v>103</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19">
+      <c r="A5" s="15">
         <v>104</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="18">
         <v>3000</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22">
+      <c r="A6" s="15"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18">
         <v>0.15</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="17" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1571,20 +1621,20 @@
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="D1" s="26" t="s">
+      <c r="B1" s="30"/>
+      <c r="D1" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="20" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1627,10 +1677,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23">
+      <c r="A7" s="19">
         <v>0.2</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="19">
         <v>345</v>
       </c>
     </row>
@@ -1680,47 +1730,47 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="28">
+      <c r="A2" s="21">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="28">
+      <c r="A3" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="28">
+      <c r="A4" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="28">
+      <c r="A5" s="21">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="28">
+      <c r="A6" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="28">
+      <c r="A7" s="21">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="28">
+      <c r="A8" s="21">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="28">
+      <c r="A9" s="21">
         <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="28">
+      <c r="A10" s="21">
         <v>56</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -1728,7 +1778,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="29">
+      <c r="A11" s="22">
         <v>43</v>
       </c>
     </row>
@@ -1834,18 +1884,18 @@
       </c>
     </row>
     <row r="3" spans="2:14" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="9">
         <f>MEDIAN(B1:F1)</f>
         <v>25</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="30"/>
+      <c r="J3" s="33"/>
       <c r="K3" s="9">
         <f>MEDIAN(H2:M2)</f>
         <v>17</v>
@@ -1855,15 +1905,15 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="2:14" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30" t="s">
+      <c r="J4" s="33"/>
+      <c r="K4" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="30"/>
-      <c r="M4" s="31">
+      <c r="L4" s="33"/>
+      <c r="M4" s="23">
         <f>(11+23)/2</f>
         <v>17</v>
       </c>
@@ -2023,13 +2073,13 @@
       <c r="A2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="24">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="24">
         <v>0.3820601851851852</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="24">
         <f>(C2-B2)</f>
         <v>4.8726851851851882E-2</v>
       </c>
@@ -2041,20 +2091,20 @@
       <c r="A3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="24">
         <v>0.33344907407407409</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="24">
         <v>0.3821180555555555</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="24">
         <f t="shared" ref="D3:D6" si="0">(C3-B3)</f>
         <v>4.866898148148141E-2</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="25">
         <f>SMALL(D2:D6,3)</f>
         <v>4.8726851851851882E-2</v>
       </c>
@@ -2063,20 +2113,20 @@
       <c r="A4" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="24">
         <v>0.33350694444444445</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="24">
         <v>0.38217592592592592</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="24">
         <f t="shared" si="0"/>
         <v>4.8668981481481466E-2</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="25">
         <f>SMALL(D2:D6,4)</f>
         <v>5.0509259259259309E-2</v>
       </c>
@@ -2085,20 +2135,20 @@
       <c r="A5" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="24">
         <v>0.33334490740740735</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="24">
         <v>0.38385416666666666</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="24">
         <f t="shared" si="0"/>
         <v>5.0509259259259309E-2</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="25">
         <f>SMALL(D2:D6,5)</f>
         <v>5.2662037037037035E-2</v>
       </c>
@@ -2107,13 +2157,13 @@
       <c r="A6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="24">
         <v>0.33339120370370368</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="24">
         <v>0.38605324074074071</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="24">
         <f t="shared" si="0"/>
         <v>5.2662037037037035E-2</v>
       </c>
@@ -2325,7 +2375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF54A69C-C469-4B8A-9077-11C6B7F5EF64}">
   <dimension ref="A2:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -2350,68 +2400,68 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="22">
+      <c r="A3" s="18">
         <v>2018</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="18">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="22">
+      <c r="A4" s="18">
         <v>2018</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="18">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="22">
+      <c r="A5" s="18">
         <v>2019</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="18">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="22">
+      <c r="A6" s="18">
         <v>2019</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="18">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="22">
+      <c r="A7" s="18">
         <v>2020</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="18">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="22">
+      <c r="A8" s="18">
         <v>2020</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="18">
         <v>90</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -2430,7 +2480,7 @@
       <c r="B10" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="26">
         <f>SUBTOTAL(9,C3:C8)</f>
         <v>263</v>
       </c>
@@ -2442,7 +2492,7 @@
       <c r="B11" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="26">
         <f>SUBTOTAL(1,C3:C8)</f>
         <v>43.833333333333336</v>
       </c>
@@ -2450,6 +2500,235 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1F6583-D10A-49D6-BA84-ADA0EFCEC0C1}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.90625" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="E2" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>-2.3355000000000001</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="E3" s="4">
+        <v>-2.3355000000000001</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>567.20000000000005</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="E4" s="4">
+        <v>567.20000000000005</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9E152D-95EA-48FE-94FF-345E9DEB6A5F}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="36.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18">
+        <v>9.1</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18">
+        <v>-0.5</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18">
+        <v>-2.1</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C197F69A-2055-46A5-9D0A-5EDF58F5697C}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.08984375" customWidth="1"/>
+    <col min="3" max="3" width="41.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18">
+        <v>9.1</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18">
+        <v>1.05</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18">
+        <v>-2.1</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2880,10 +3159,9 @@
         <f>MOD(A3,B3)</f>
         <v>-4</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
@@ -2896,8 +3174,6 @@
         <f t="shared" ref="C4:C6" si="0">MOD(A4,B4)</f>
         <v>3</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
@@ -2974,7 +3250,7 @@
       <c r="D2" s="6">
         <v>48</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <f>AVERAGE(B2,C2,D2)</f>
         <v>43</v>
       </c>
@@ -2992,7 +3268,7 @@
       <c r="D3" s="6">
         <v>39</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <f>AVERAGE(B3:D3)</f>
         <v>45.666666666666664</v>
       </c>
@@ -3010,7 +3286,7 @@
       <c r="D4" s="6">
         <v>50</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <f t="shared" ref="E4:E6" si="0">AVERAGE(B4:D4)</f>
         <v>39.666666666666664</v>
       </c>
@@ -3028,7 +3304,7 @@
       <c r="D5" s="6">
         <v>48</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <f t="shared" si="0"/>
         <v>41.333333333333336</v>
       </c>
@@ -3046,7 +3322,7 @@
       <c r="D6" s="6">
         <v>40</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <f t="shared" si="0"/>
         <v>42.333333333333336</v>
       </c>

--- a/Math_Functions/Math_functions_InClass.xlsx
+++ b/Math_Functions/Math_functions_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Math_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D864070A-3BB2-42BB-9903-B3A4ECA599FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154B5AA4-94C2-4086-8F6E-B0EE3E1C2FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="18" activeTab="22" xr2:uid="{DAED6279-8FDE-4E02-9EB3-DCAB411A94B9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="18" activeTab="21" xr2:uid="{DAED6279-8FDE-4E02-9EB3-DCAB411A94B9}"/>
   </bookViews>
   <sheets>
     <sheet name="ABS" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <sheet name="Small" sheetId="18" r:id="rId18"/>
     <sheet name="Product" sheetId="19" r:id="rId19"/>
     <sheet name="Subtotal" sheetId="20" r:id="rId20"/>
-    <sheet name="Celing" sheetId="21" r:id="rId21"/>
+    <sheet name="Floor &amp; Celing" sheetId="21" r:id="rId21"/>
     <sheet name="EVEN" sheetId="22" r:id="rId22"/>
     <sheet name="ODD" sheetId="23" r:id="rId23"/>
   </sheets>
@@ -2577,7 +2577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9E152D-95EA-48FE-94FF-345E9DEB6A5F}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2656,7 +2656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C197F69A-2055-46A5-9D0A-5EDF58F5697C}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/Math_Functions/Math_functions_InClass.xlsx
+++ b/Math_Functions/Math_functions_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Math_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154B5AA4-94C2-4086-8F6E-B0EE3E1C2FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1D0CAD-2698-4097-B971-A50CDF563BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="18" activeTab="21" xr2:uid="{DAED6279-8FDE-4E02-9EB3-DCAB411A94B9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="19" activeTab="20" xr2:uid="{DAED6279-8FDE-4E02-9EB3-DCAB411A94B9}"/>
   </bookViews>
   <sheets>
     <sheet name="ABS" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,8 @@
     <sheet name="Floor &amp; Celing" sheetId="21" r:id="rId21"/>
     <sheet name="EVEN" sheetId="22" r:id="rId22"/>
     <sheet name="ODD" sheetId="23" r:id="rId23"/>
+    <sheet name="Round" sheetId="24" r:id="rId24"/>
+    <sheet name="Trunc" sheetId="26" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -81,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="145">
   <si>
     <t>Month</t>
   </si>
@@ -483,6 +485,39 @@
   </si>
   <si>
     <t>EVEN(A2)</t>
+  </si>
+  <si>
+    <t>Digit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Round to 1 decimal places </t>
+  </si>
+  <si>
+    <t>Round to 2 decimal places</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Round to 3 decimal places </t>
+  </si>
+  <si>
+    <t>Round to nearest whole number</t>
+  </si>
+  <si>
+    <t>Round to nearest 10</t>
+  </si>
+  <si>
+    <t>Round to nearest 100</t>
+  </si>
+  <si>
+    <t>Round to nearest 1000</t>
+  </si>
+  <si>
+    <t>Round to nearest 10000</t>
+  </si>
+  <si>
+    <t>TRUNC(A4,B4)</t>
+  </si>
+  <si>
+    <t>ROUND(A2,B2)</t>
   </si>
 </sst>
 </file>
@@ -656,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -723,6 +758,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2507,8 +2548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1F6583-D10A-49D6-BA84-ADA0EFCEC0C1}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.90625" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2577,8 +2618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9E152D-95EA-48FE-94FF-345E9DEB6A5F}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2656,8 +2697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C197F69A-2055-46A5-9D0A-5EDF58F5697C}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2726,6 +2767,221 @@
       <c r="C9" s="7" t="s">
         <v>132</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B647D3C3-D6C2-4319-B6C7-9EBAB60D1B6D}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="26.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="28.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18">
+        <v>5.7845000000000004</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18">
+        <v>5.7845000000000004</v>
+      </c>
+      <c r="B3" s="18">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18">
+        <v>5.7845000000000004</v>
+      </c>
+      <c r="B4" s="18">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18">
+        <v>23542.5</v>
+      </c>
+      <c r="B5" s="18">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18">
+        <v>23542.5</v>
+      </c>
+      <c r="B6" s="18">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="18">
+        <v>23542.5</v>
+      </c>
+      <c r="B7" s="18">
+        <v>-2</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="18">
+        <v>23542.5</v>
+      </c>
+      <c r="B8" s="18">
+        <v>-3</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="18">
+        <v>23542.5</v>
+      </c>
+      <c r="B9" s="18">
+        <v>-4</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D74C02A-267C-45D1-B55D-8ACAB6CEE21A}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="26.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.08984375" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" customWidth="1"/>
+    <col min="4" max="4" width="32.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18">
+        <v>-3.5</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="35"/>
+    </row>
+    <row r="4" spans="1:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18">
+        <v>3.1456165</v>
+      </c>
+      <c r="B4" s="18">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18">
+        <v>3.1456786000000001</v>
+      </c>
+      <c r="B5" s="18">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="35"/>
+    </row>
+    <row r="6" spans="1:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18">
+        <v>3.1456708999999998</v>
+      </c>
+      <c r="B6" s="18">
+        <v>4</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="35"/>
+    </row>
+    <row r="8" spans="1:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="35"/>
+    </row>
+    <row r="9" spans="1:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Math_Functions/Math_functions_InClass.xlsx
+++ b/Math_Functions/Math_functions_InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Math_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1D0CAD-2698-4097-B971-A50CDF563BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44090F78-F64B-499F-AC74-A403E486352F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="19" activeTab="20" xr2:uid="{DAED6279-8FDE-4E02-9EB3-DCAB411A94B9}"/>
+    <workbookView xWindow="28635" yWindow="-165" windowWidth="15690" windowHeight="11250" firstSheet="19" activeTab="24" xr2:uid="{DAED6279-8FDE-4E02-9EB3-DCAB411A94B9}"/>
   </bookViews>
   <sheets>
     <sheet name="ABS" sheetId="1" r:id="rId1"/>
@@ -469,18 +469,6 @@
     <t>Round up to 3; skipping 2</t>
   </si>
   <si>
-    <t>Round up away from Zero to -3; skips -2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round up away from Zero; skips -1 </t>
-  </si>
-  <si>
-    <t>Round up away from Zero to -3</t>
-  </si>
-  <si>
-    <t>Round up away from Zero; skips -3</t>
-  </si>
-  <si>
     <t>ODD(A2)</t>
   </si>
   <si>
@@ -518,6 +506,18 @@
   </si>
   <si>
     <t>ROUND(A2,B2)</t>
+  </si>
+  <si>
+    <t>Round down away from Zero; skips -3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Round down away from Zero; skips -1 </t>
+  </si>
+  <si>
+    <t>Round down away from Zero to -3; skips -2</t>
+  </si>
+  <si>
+    <t>Round down away from Zero to -3</t>
   </si>
 </sst>
 </file>
@@ -735,6 +735,12 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -758,12 +764,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1267,10 +1267,10 @@
       <c r="D2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="29"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -1285,10 +1285,10 @@
       <c r="D3" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="28"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
@@ -1333,10 +1333,10 @@
         <f>AVERAGEIFS(B2:B7,A2:A7,"IPHONE")</f>
         <v>1566.6666666666667</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="29"/>
+      <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
@@ -1361,10 +1361,10 @@
       <c r="H6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="28"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
@@ -1662,14 +1662,14 @@
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="D1" s="31" t="s">
+      <c r="B1" s="32"/>
+      <c r="D1" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="32"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
@@ -1925,18 +1925,18 @@
       </c>
     </row>
     <row r="3" spans="2:14" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="9">
         <f>MEDIAN(B1:F1)</f>
         <v>25</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="33"/>
+      <c r="J3" s="35"/>
       <c r="K3" s="9">
         <f>MEDIAN(H2:M2)</f>
         <v>17</v>
@@ -1946,14 +1946,14 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="2:14" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33" t="s">
+      <c r="J4" s="35"/>
+      <c r="K4" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="33"/>
+      <c r="L4" s="35"/>
       <c r="M4" s="23">
         <f>(11+23)/2</f>
         <v>17</v>
@@ -2255,13 +2255,13 @@
         <f>PRODUCT(A2,B2)</f>
         <v>72</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
@@ -2274,11 +2274,11 @@
         <f>PRODUCT(A3,B3)</f>
         <v>50</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
     </row>
     <row r="4" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
@@ -2548,8 +2548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1F6583-D10A-49D6-BA84-ADA0EFCEC0C1}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.90625" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2575,31 +2575,49 @@
       <c r="A2" s="4">
         <v>2.4</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5">
+        <f>FLOOR(A2,4)</f>
+        <v>0</v>
+      </c>
       <c r="E2" s="4">
         <v>2.4</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="5">
+        <f>CEILING(E2,5)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>-2.3355000000000001</v>
-      </c>
-      <c r="B3" s="5"/>
+        <v>-5.3354999999999997</v>
+      </c>
+      <c r="B3" s="5">
+        <f>FLOOR(A3,3)</f>
+        <v>-6</v>
+      </c>
       <c r="E3" s="4">
-        <v>-2.3355000000000001</v>
-      </c>
-      <c r="F3" s="5"/>
+        <v>-5.3354999999999997</v>
+      </c>
+      <c r="F3" s="5">
+        <f>CEILING(E3,3)</f>
+        <v>-3</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>567.20000000000005</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5">
+        <f>FLOOR(A4,4)</f>
+        <v>564</v>
+      </c>
       <c r="E4" s="4">
         <v>567.20000000000005</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5">
+        <f>CEILING(E4,5)</f>
+        <v>570</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="7" t="s">
@@ -2619,7 +2637,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2642,7 +2660,10 @@
       <c r="A2" s="18">
         <v>9.1</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="12">
+        <f>EVEN(A2)</f>
+        <v>10</v>
+      </c>
       <c r="C2" s="18" t="s">
         <v>124</v>
       </c>
@@ -2651,7 +2672,10 @@
       <c r="A3" s="18">
         <v>0.05</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="12">
+        <f>EVEN(A3)</f>
+        <v>2</v>
+      </c>
       <c r="C3" s="18" t="s">
         <v>126</v>
       </c>
@@ -2660,7 +2684,10 @@
       <c r="A4" s="18">
         <v>0.7</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="12">
+        <f>EVEN(A4)</f>
+        <v>2</v>
+      </c>
       <c r="C4" s="18" t="s">
         <v>126</v>
       </c>
@@ -2669,23 +2696,29 @@
       <c r="A5" s="18">
         <v>-0.5</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="12">
+        <f>EVEN(A5)</f>
+        <v>-2</v>
+      </c>
       <c r="C5" s="18" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18">
         <v>-2.1</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="12">
+        <f>EVEN(A6)</f>
+        <v>-4</v>
+      </c>
       <c r="C6" s="18" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2698,7 +2731,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2722,7 +2755,10 @@
       <c r="A2" s="18">
         <v>9.1</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="12">
+        <f>ODD(A2)</f>
+        <v>11</v>
+      </c>
       <c r="C2" s="18" t="s">
         <v>123</v>
       </c>
@@ -2731,7 +2767,10 @@
       <c r="A3" s="18">
         <v>0.05</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="12">
+        <f>ODD(A3)</f>
+        <v>1</v>
+      </c>
       <c r="C3" s="18" t="s">
         <v>125</v>
       </c>
@@ -2740,7 +2779,10 @@
       <c r="A4" s="18">
         <v>1.05</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="12">
+        <f>ODD(A4)</f>
+        <v>3</v>
+      </c>
       <c r="C4" s="18" t="s">
         <v>127</v>
       </c>
@@ -2749,23 +2791,29 @@
       <c r="A5" s="18">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="12">
+        <f>ODD(A5)</f>
+        <v>-3</v>
+      </c>
       <c r="C5" s="18" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18">
         <v>-2.1</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="12">
+        <f>ODD(A6)</f>
+        <v>-3</v>
+      </c>
       <c r="C6" s="18" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2778,7 +2826,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="26.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2791,7 +2839,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>11</v>
@@ -2807,9 +2855,12 @@
       <c r="B2" s="18">
         <v>1</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="12">
+        <f>ROUND(A2,B2)</f>
+        <v>5.8</v>
+      </c>
       <c r="D2" s="18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2819,9 +2870,12 @@
       <c r="B3" s="18">
         <v>2</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="12">
+        <f>ROUND(A3,B3)</f>
+        <v>5.78</v>
+      </c>
       <c r="D3" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2831,12 +2885,15 @@
       <c r="B4" s="18">
         <v>3</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="12">
+        <f>ROUND(A4,B4)</f>
+        <v>5.7850000000000001</v>
+      </c>
       <c r="D4" s="18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2846,9 +2903,12 @@
       <c r="B5" s="18">
         <v>0</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="12">
+        <f>ROUND(A5,B5)</f>
+        <v>23543</v>
+      </c>
       <c r="D5" s="18" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2858,9 +2918,12 @@
       <c r="B6" s="18">
         <v>-1</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="12">
+        <f>ROUND(A6,B6)</f>
+        <v>23540</v>
+      </c>
       <c r="D6" s="18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2870,9 +2933,12 @@
       <c r="B7" s="18">
         <v>-2</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="12">
+        <f>ROUND(A7,B7)</f>
+        <v>23500</v>
+      </c>
       <c r="D7" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2882,9 +2948,12 @@
       <c r="B8" s="18">
         <v>-3</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="12">
+        <f>ROUND(A8,B8)</f>
+        <v>24000</v>
+      </c>
       <c r="D8" s="18" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2894,9 +2963,12 @@
       <c r="B9" s="18">
         <v>-4</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="12">
+        <f>ROUND(A9,B9)</f>
+        <v>20000</v>
+      </c>
       <c r="D9" s="18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2908,8 +2980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D74C02A-267C-45D1-B55D-8ACAB6CEE21A}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.1796875" defaultRowHeight="26.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2924,7 +2996,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>11</v>
@@ -2935,15 +3007,21 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="B2" s="18"/>
-      <c r="C2" s="12"/>
+      <c r="C2" s="12">
+        <f>TRUNC(A2,B2)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18">
         <v>-3.5</v>
       </c>
       <c r="B3" s="18"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="35"/>
+      <c r="C3" s="12">
+        <f>TRUNC(A3,B3)</f>
+        <v>-3</v>
+      </c>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18">
@@ -2952,9 +3030,12 @@
       <c r="B4" s="18">
         <v>2</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="36" t="s">
-        <v>143</v>
+      <c r="C4" s="12">
+        <f>TRUNC(A4,B4)</f>
+        <v>3.14</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2964,8 +3045,11 @@
       <c r="B5" s="18">
         <v>3</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="35"/>
+      <c r="C5" s="12">
+        <f>TRUNC(A5,B5)</f>
+        <v>3.145</v>
+      </c>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18">
@@ -2974,14 +3058,17 @@
       <c r="B6" s="18">
         <v>4</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="35"/>
+      <c r="C6" s="12">
+        <f>TRUNC(A6,B6)</f>
+        <v>3.1456</v>
+      </c>
+      <c r="D6" s="27"/>
     </row>
     <row r="8" spans="1:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="35"/>
+      <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="35"/>
+      <c r="D9" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
